--- a/user-database-fields.xlsx
+++ b/user-database-fields.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -35,7 +35,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>ADMIN</t>
+    <t>EMPLOYEE</t>
   </si>
   <si>
     <t>Mike</t>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>mike@gmail.com</t>
-  </si>
-  <si>
-    <t>EMPLOYEE</t>
   </si>
   <si>
     <t>Alex</t>
@@ -210,22 +207,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -233,22 +230,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -256,22 +253,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -279,22 +276,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
